--- a/files/excel_result.xlsx
+++ b/files/excel_result.xlsx
@@ -74,7 +74,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6296025" cy="4010025"/>
+    <ext cx="6296025" cy="6391275"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -384,7 +384,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,8 +399,8 @@
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="2" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Created by Pavel Stashchenko, group 10701118</t>
         </is>
@@ -409,7 +409,7 @@
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A25:I25"/>
+    <mergeCell ref="A37:I37"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
